--- a/CLAVES DE MECTRÓNICA.xlsx
+++ b/CLAVES DE MECTRÓNICA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1304,8 +1304,8 @@
   <dimension ref="A1:S128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R93" sqref="R93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
